--- a/KinoCMS.xlsx
+++ b/KinoCMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Project\lesson\kino\KinoCMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Project\KinoCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B91FC-4943-4AB4-956A-80D988D8FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38145FCC-F658-46AD-BE12-A6509F6F0883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>№</t>
   </si>
@@ -81,15 +81,6 @@
     <t>создать модель для баннера</t>
   </si>
   <si>
-    <t>создать форму добавления баннера на главной верх</t>
-  </si>
-  <si>
-    <t xml:space="preserve">создать форму добавления сквозного баннера  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">создать форму добавления  баннера новости Акции </t>
-  </si>
-  <si>
     <t>создать модель кинотеатра</t>
   </si>
   <si>
@@ -105,21 +96,6 @@
     <t xml:space="preserve">реализовать станицу Кинотеатры </t>
   </si>
   <si>
-    <t>создать форму добавления новости</t>
-  </si>
-  <si>
-    <t>создать страницу Новости</t>
-  </si>
-  <si>
-    <t>создать модель Новости</t>
-  </si>
-  <si>
-    <t>создать модель Акции</t>
-  </si>
-  <si>
-    <t>создать форму добавления Акции</t>
-  </si>
-  <si>
     <t>создать страницу Акции</t>
   </si>
   <si>
@@ -147,9 +123,6 @@
     <t>подключить форму редактирования пользователя</t>
   </si>
   <si>
-    <t>реализовать станицу Пользователи</t>
-  </si>
-  <si>
     <t>релизовать форму рассылки SMS</t>
   </si>
   <si>
@@ -171,9 +144,6 @@
     <t>разобратся с добавлением контекстной рекламы</t>
   </si>
   <si>
-    <t xml:space="preserve">добавить ссылки на соц сети </t>
-  </si>
-  <si>
     <t>разобратся с поиском посайту</t>
   </si>
   <si>
@@ -183,9 +153,6 @@
     <t>узнать на реализовать сайт на нескоьких языках</t>
   </si>
   <si>
-    <t>реализовать страницу афиша</t>
-  </si>
-  <si>
     <t>реализовать страницу Карточка фильма</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
     <t>реализовать login/logout</t>
   </si>
   <si>
-    <t>Реализовать карточку клента</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -337,6 +301,69 @@
   </si>
   <si>
     <t>деплой на сервер</t>
+  </si>
+  <si>
+    <t>Добавить разделения категорий на странице фильмов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавление виджета выбора даты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод таблици юзеров на вкладке пользователи </t>
+  </si>
+  <si>
+    <t>Добавить форму добавления юзера в админку</t>
+  </si>
+  <si>
+    <t>Форма удаления пользователя</t>
+  </si>
+  <si>
+    <t>создать модель Новости/создать модель Акции</t>
+  </si>
+  <si>
+    <t>создать форму добавления новости/ Акции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- fix авто добавления слага </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix OverflowError: Python int too large to convert to C long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix форма добавления акций </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма редактирования акций/новости </t>
+  </si>
+  <si>
+    <t>Форма удаления акций/новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прописать error в формах </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написание моделей Cтраниц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написание моделей баннеры </t>
+  </si>
+  <si>
+    <t>Внесение на главную страницу данные из модели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view для баннера </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма баннер update form </t>
+  </si>
+  <si>
+    <t>создать страницу Новости/Акции (админка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">форма редактирования главной страницы </t>
+  </si>
+  <si>
+    <t>https://app.moqups.com/P3y9egJ6/view/page/a41743150</t>
   </si>
 </sst>
 </file>
@@ -347,12 +374,20 @@
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-ru-UA,1]hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,11 +456,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -440,13 +475,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -455,12 +490,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,16 +795,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" hidden="1" customWidth="1"/>
@@ -770,14 +812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -809,11 +851,11 @@
       <c r="C3" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="19">
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="17">
+      <c r="F3" s="20">
         <f>D3/(C3+C4)</f>
         <v>1.4666666666666668</v>
       </c>
@@ -828,9 +870,12 @@
       <c r="C4" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="20"/>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -856,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3">
         <v>1.0416666666666666E-2</v>
@@ -894,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>1.0416666666666666E-2</v>
@@ -915,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
         <v>3.125E-2</v>
@@ -934,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3">
         <v>6.9444444444444441E-3</v>
@@ -953,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
         <v>6.9444444444444441E-3</v>
@@ -972,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3">
         <v>6.9444444444444441E-3</v>
@@ -991,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3">
         <v>3.472222222222222E-3</v>
@@ -1010,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1065,7 +1110,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -1085,7 +1130,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1102,7 +1147,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3">
         <v>1.0416666666666666E-2</v>
@@ -1119,7 +1164,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3">
         <v>6.25E-2</v>
@@ -1136,7 +1181,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3">
         <v>6.9444444444444441E-3</v>
@@ -1153,7 +1198,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3">
         <v>2.0833333333333332E-2</v>
@@ -1170,7 +1215,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3">
         <v>5.2083333333333336E-2</v>
@@ -1187,7 +1232,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3">
         <v>5.2083333333333336E-2</v>
@@ -1204,7 +1249,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>6.25E-2</v>
@@ -1221,7 +1266,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1238,7 +1283,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1255,7 +1300,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3">
         <v>6.9444444444444441E-3</v>
@@ -1289,7 +1334,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C30" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1306,7 +1351,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C31" s="3">
         <v>6.25E-2</v>
@@ -1323,7 +1368,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3">
         <v>2.0833333333333332E-2</v>
@@ -1340,7 +1385,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3">
         <v>6.25E-2</v>
@@ -1357,7 +1402,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3">
         <v>6.25E-2</v>
@@ -1374,7 +1419,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C35" s="3">
         <v>4.1666666666666664E-2</v>
@@ -1412,14 +1457,14 @@
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -1439,373 +1484,442 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>3.888888888888889E-2</v>
+      </c>
       <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9"/>
+      <c r="D45" s="3">
+        <v>2.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
-        <v>12</v>
+      <c r="B46" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C46" s="3">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>17</v>
+      <c r="A47" s="4"/>
+      <c r="B47" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="C47" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="D47" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="3">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="E48" s="15"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
-        <v>19</v>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="C49" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="3">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="E49" s="15"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
-        <v>20</v>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="E50" s="15"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5" t="s">
-        <v>21</v>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C51" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="3">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E52" s="15"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C53" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="E53" s="15"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
-        <v>24</v>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="E54" s="15"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C55" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5" t="s">
-        <v>28</v>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C56" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="3">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5" t="s">
-        <v>27</v>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="C58" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D60" s="3">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="E60" s="15"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="C61" s="13">
-        <f>SUM(C42:C60)</f>
-        <v>1.4479166666666665</v>
-      </c>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="E61" s="15"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5" t="s">
-        <v>29</v>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C65" s="3">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="5" t="s">
-        <v>30</v>
+      <c r="D65" s="3">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="C66" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="3">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="C69" s="13">
+        <f>SUM(C42:C68)</f>
+        <v>1.2534722222222223</v>
+      </c>
+      <c r="D69" s="13">
+        <f>SUM(D42:D68)</f>
+        <v>1.2631944444444447</v>
+      </c>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C73" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C74" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C75" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C76" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>40</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C77" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C78" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C79" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C80" s="3">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C81" s="3">
         <v>8.3333333333333329E-2</v>
@@ -1813,248 +1927,332 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C82" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C83" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="13">
-        <f>SUM(C65:C82)</f>
-        <v>1.3541666666666667</v>
+      <c r="B84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.125</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C90" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="13">
+        <f>SUM(C73:C90)</f>
+        <v>1.3958333333333335</v>
+      </c>
+      <c r="D92" s="13">
+        <f>SUM(D73:D90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="5" t="s">
+      <c r="C110" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="C111" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="3">
         <v>0.125</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="13">
+        <f>SUM(C96:C114)</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="D115" s="13">
+        <f>SUM(D98:D114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C105" s="3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="3">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="3">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="13">
-        <f>SUM(C90:C106)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="13">
-        <f>SUM(C110:C114)</f>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="13">
+        <f>SUM(C118:C122)</f>
         <v>0.87499999999999989</v>
+      </c>
+      <c r="D123" s="13">
+        <f>SUM(D118:D122)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A117:F117"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A71:F71"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
